--- a/biology/Médecine/Hôpital_des_yeux_et_des_oreilles/Hôpital_des_yeux_et_des_oreilles.xlsx
+++ b/biology/Médecine/Hôpital_des_yeux_et_des_oreilles/Hôpital_des_yeux_et_des_oreilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_des_yeux_et_des_oreilles</t>
+          <t>Hôpital_des_yeux_et_des_oreilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital des yeux et des oreilles (en finnois : Silmä-korvasairaala) est un hôpital d'ophthalmologie et d'otorhinolaryngologie du HUS situé à Meilahti à Helsinki en Finlande.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_des_yeux_et_des_oreilles</t>
+          <t>Hôpital_des_yeux_et_des_oreilles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_des_yeux_et_des_oreilles</t>
+          <t>Hôpital_des_yeux_et_des_oreilles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,9 +553,11 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le même quartier se trouvent la tour hospitalière de Meilahti, l'hôpital d'Haartman, la clinique de gynécologie, l'hôpital triangulaire de Meilahti, l'hôpital du parc, la clinique d'oncologie, l'hôpital pour enfants et des bâtiments de la faculté de médecine de l'université d'Helsinki[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le même quartier se trouvent la tour hospitalière de Meilahti, l'hôpital d'Haartman, la clinique de gynécologie, l'hôpital triangulaire de Meilahti, l'hôpital du parc, la clinique d'oncologie, l'hôpital pour enfants et des bâtiments de la faculté de médecine de l'université d'Helsinki.
 </t>
         </is>
       </c>
